--- a/images/BSE-class-diagram.xlsx
+++ b/images/BSE-class-diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\User_Files\COMPAS\dev\my_fork\readthedocs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B537857D-1E10-4F1E-8432-5C55DB68B7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF3ED44-8398-4D40-AF70-0F41A198F9A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE3478E4-7629-41D0-9953-348CB412B7ED}"/>
   </bookViews>
@@ -845,13 +845,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C741E871-AC11-4C61-9472-918903186DF0}">
   <dimension ref="B1:AR48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="45" max="45" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2438,7 +2439,7 @@
       <c r="AQ47" s="44"/>
       <c r="AR47" s="47"/>
     </row>
-    <row r="48" spans="2:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:44" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B12:U21"/>
@@ -2450,6 +2451,7 @@
     <mergeCell ref="AI38:AR47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>